--- a/biology/Zoologie/Actinopteryx/Actinopteryx.xlsx
+++ b/biology/Zoologie/Actinopteryx/Actinopteryx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Actinopteryx est un genre de coléoptères de la famille des Ptiliidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Actinopteryx a été créé par Andrew Matthews (d) en 1872[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Actinopteryx a été créé par Andrew Matthews (d) en 1872.
 </t>
         </is>
       </c>
@@ -542,17 +556,19 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (26 février 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (26 février 2021) :
 Actinopteryx fucicola (Allibert, 1844)
 Actinopteryx hercules Deane, 1931
 Actinopteryx parallela Britten, 1926
 Actinopteryx reflexa Britten, 1926
 Actinopteryx tillyardi Deane, 1932
 Auxquelles s'ajoutent parfois :
-Actinopteryx hoguei (Johnson, 1982[3])
-Actinopteryx lancifer (Fauvel, 1891[4])</t>
+Actinopteryx hoguei (Johnson, 1982)
+Actinopteryx lancifer (Fauvel, 1891)</t>
         </is>
       </c>
     </row>
@@ -580,7 +596,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rev. A. Matthews, Trichopterygia illustrata et descripta. A monograph of the Trichopterygia. Supplement, 1900, 112 p. (DOI 10.5962/BHL.TITLE.9346, lire en ligne)</t>
         </is>
